--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="R222" s="2" t="inlineStr"/>
     </row>
-    <row r="223">
+    <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
           <t>A 40055-2023</t>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14255,6 +14255,63 @@
         <v>0</v>
       </c>
       <c r="R223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>A 42304-2023</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>LJUSNARSBERG</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>27</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 49304-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 49304-2019.xlsx", "A 49304-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 49304-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 49304-2019.png", "A 49304-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 49304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 49304-2019.docx", "A 49304-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 49304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 49304-2019.docx", "A 49304-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 49304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 49304-2019.docx", "A 49304-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 49304-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 49304-2019.docx", "A 49304-2019")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 37817-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 37817-2021.xlsx", "A 37817-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 37817-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 37817-2021.png", "A 37817-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 37817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 37817-2021.docx", "A 37817-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 37817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 37817-2021.docx", "A 37817-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 37817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 37817-2021.docx", "A 37817-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 37817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 37817-2021.docx", "A 37817-2021")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 29115-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 29115-2019.xlsx", "A 29115-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 29115-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 29115-2019.png", "A 29115-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 29115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 29115-2019.docx", "A 29115-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 29115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 29115-2019.docx", "A 29115-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 29115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 29115-2019.docx", "A 29115-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 29115-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 29115-2019.docx", "A 29115-2019")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -898,27 +898,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 38627-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 38627-2019.xlsx", "A 38627-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 38627-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 38627-2019.png", "A 38627-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 38627-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 38627-2019.docx", "A 38627-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 38627-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 38627-2019.docx", "A 38627-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 38627-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 38627-2019.docx", "A 38627-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 38627-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 38627-2019.docx", "A 38627-2019")</f>
         <v/>
       </c>
     </row>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,27 +984,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 1256-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 1256-2019.xlsx", "A 1256-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 1256-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 1256-2019.png", "A 1256-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 1256-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 1256-2019.docx", "A 1256-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 1256-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 1256-2019.docx", "A 1256-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 1256-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 1256-2019.docx", "A 1256-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 1256-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 1256-2019.docx", "A 1256-2019")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 48004-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 48004-2019.xlsx", "A 48004-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 48004-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 48004-2019.png", "A 48004-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 48004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 48004-2019.docx", "A 48004-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 48004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 48004-2019.docx", "A 48004-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 48004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 48004-2019.docx", "A 48004-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 48004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 48004-2019.docx", "A 48004-2019")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1156,31 +1156,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 23092-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 23092-2020.xlsx", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 23092-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 23092-2020.png", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/knärot/A 23092-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/knärot/A 23092-2020.png", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 23092-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 23092-2020.docx", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 23092-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 23092-2020.docx", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 23092-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 23092-2020.docx", "A 23092-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 23092-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 23092-2020.docx", "A 23092-2020")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1251,27 +1251,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65216-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65216-2021.xlsx", "A 65216-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65216-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65216-2021.png", "A 65216-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65216-2021.docx", "A 65216-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65216-2021.docx", "A 65216-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65216-2021.docx", "A 65216-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65216-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65216-2021.docx", "A 65216-2021")</f>
         <v/>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1342,27 +1342,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65217-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65217-2021.xlsx", "A 65217-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65217-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65217-2021.png", "A 65217-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65217-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65217-2021.docx", "A 65217-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65217-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65217-2021.docx", "A 65217-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65217-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65217-2021.docx", "A 65217-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65217-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65217-2021.docx", "A 65217-2021")</f>
         <v/>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,27 +1428,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 5760-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 5760-2022.xlsx", "A 5760-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 5760-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 5760-2022.png", "A 5760-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 5760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 5760-2022.docx", "A 5760-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 5760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 5760-2022.docx", "A 5760-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 5760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 5760-2022.docx", "A 5760-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 5760-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 5760-2022.docx", "A 5760-2022")</f>
         <v/>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,27 +1519,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 41078-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 41078-2022.xlsx", "A 41078-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 41078-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 41078-2022.png", "A 41078-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 41078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 41078-2022.docx", "A 41078-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 41078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 41078-2022.docx", "A 41078-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 41078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 41078-2022.docx", "A 41078-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 41078-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 41078-2022.docx", "A 41078-2022")</f>
         <v/>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,27 +1605,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 30360-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 30360-2023.xlsx", "A 30360-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 30360-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 30360-2023.png", "A 30360-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 30360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 30360-2023.docx", "A 30360-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 30360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 30360-2023.docx", "A 30360-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 30360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 30360-2023.docx", "A 30360-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 30360-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 30360-2023.docx", "A 30360-2023")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1690,27 +1690,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 12383-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 12383-2020.xlsx", "A 12383-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 12383-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 12383-2020.png", "A 12383-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 12383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 12383-2020.docx", "A 12383-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 12383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 12383-2020.docx", "A 12383-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 12383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 12383-2020.docx", "A 12383-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 12383-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 12383-2020.docx", "A 12383-2020")</f>
         <v/>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 47044-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 47044-2020.xlsx", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 47044-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 47044-2020.png", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/knärot/A 47044-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/knärot/A 47044-2020.png", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 47044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 47044-2020.docx", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 47044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 47044-2020.docx", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 47044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 47044-2020.docx", "A 47044-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 47044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 47044-2020.docx", "A 47044-2020")</f>
         <v/>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1874,27 +1874,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65215-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 65215-2021.xlsx", "A 65215-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65215-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 65215-2021.png", "A 65215-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65215-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 65215-2021.docx", "A 65215-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65215-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 65215-2021.docx", "A 65215-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65215-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 65215-2021.docx", "A 65215-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65215-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 65215-2021.docx", "A 65215-2021")</f>
         <v/>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1959,27 +1959,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 37547-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 37547-2022.xlsx", "A 37547-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 37547-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 37547-2022.png", "A 37547-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 37547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 37547-2022.docx", "A 37547-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 37547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 37547-2022.docx", "A 37547-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 37547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 37547-2022.docx", "A 37547-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 37547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 37547-2022.docx", "A 37547-2022")</f>
         <v/>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2044,27 +2044,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 62105-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 62105-2022.xlsx", "A 62105-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 62105-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 62105-2022.png", "A 62105-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 62105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 62105-2022.docx", "A 62105-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 62105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 62105-2022.docx", "A 62105-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 62105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 62105-2022.docx", "A 62105-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 62105-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 62105-2022.docx", "A 62105-2022")</f>
         <v/>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2129,27 +2129,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 34042-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/artfynd/A 34042-2023.xlsx", "A 34042-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 34042-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/kartor/A 34042-2023.png", "A 34042-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 34042-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomål/A 34042-2023.docx", "A 34042-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 34042-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/klagomålsmail/A 34042-2023.docx", "A 34042-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 34042-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsyn/A 34042-2023.docx", "A 34042-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 34042-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUSNARSBERG/tillsynsmail/A 34042-2023.docx", "A 34042-2023")</f>
         <v/>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>

--- a/Översikt LJUSNARSBERG.xlsx
+++ b/Översikt LJUSNARSBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44403</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43686</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>43473</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>43725</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>43964</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44515</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>44515</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>44596</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44091</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44809</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44920</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>45125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>43370</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>43413</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>43418</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43423</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43438</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43441</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43447</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43448</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>43453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>43472</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>43473</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>43473</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>43474</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>43486</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43502</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43502</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43502</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43504</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43517</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43532</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43546</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43560</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43564</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43564</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43564</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43572</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43588</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43588</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43605</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43605</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43633</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>43633</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>43644</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>43656</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>43656</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>43656</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         <v>43656</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>43656</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         <v>43697</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>43707</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43717</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>43719</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
         <v>43735</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>43759</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43777</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43777</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43777</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43780</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43780</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43781</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43796</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43798</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>43801</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>43805</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>43812</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>43874</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>43888</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>43895</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43903</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43927</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43979</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43984</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>44013</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44047</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44047</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44047</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44050</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44062</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44072</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44120</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44130</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44175</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44209</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44228</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44278</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44284</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44284</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44302</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44328</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>44333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>44362</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>44363</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44368</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44369</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44376</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>44386</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>44391</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44412</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44424</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44434</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44435</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44441</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44441</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         <v>44482</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44494</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>44503</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>44503</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         <v>44513</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         <v>44523</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>44524</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>44533</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44544</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>44547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>44564</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>44572</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>44572</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>44607</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>44608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44616</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>44650</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>44690</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>44690</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>44690</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44690</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44690</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>44692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         <v>44694</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44694</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44701</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44715</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44720</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>44720</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>44720</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44725</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>44734</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44734</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44790</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44790</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44802</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44812</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>44812</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>44817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44838</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44839</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44874</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44903</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44916</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44916</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44916</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44917</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44917</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44917</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44938</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44939</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44956</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44999</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>45000</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>45030</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>45030</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>45030</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         <v>45030</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45035</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>45037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>45037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45042</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45042</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>45064</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>45072</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45085</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45085</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         <v>45089</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>45089</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45089</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>45092</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>45092</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45103</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45103</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45103</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45103</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45103</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45104</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45106</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45110</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45124</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45124</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45124</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>45128</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45145</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45147</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45147</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45155</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45155</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>45155</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45156</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45168</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45180</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
